--- a/TUFE_Konfigurasyon.xlsx
+++ b/TUFE_Konfigurasyon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D01750C-C531-43EB-BA65-8C386219F0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF381506-755F-4B94-94A3-1DCE064EFDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madde_Sepeti" sheetId="1" r:id="rId1"/>
@@ -3767,7 +3767,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3801,6 +3801,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5765"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3855,7 +3862,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3874,6 +3881,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -4181,11 +4189,22 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F394" sqref="F394"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -6773,7 +6792,7 @@
         <v>393</v>
       </c>
       <c r="H129">
-        <v>1450</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -6865,7 +6884,7 @@
         <v>393</v>
       </c>
       <c r="H133">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7851,7 +7870,7 @@
         <v>548</v>
       </c>
       <c r="H182">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7874,7 +7893,7 @@
         <v>548</v>
       </c>
       <c r="H183">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8057,7 +8076,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>578</v>
       </c>
@@ -8080,7 +8099,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>580</v>
       </c>
@@ -8103,7 +8122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>582</v>
       </c>
@@ -8123,10 +8142,10 @@
         <v>584</v>
       </c>
       <c r="H195">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>585</v>
       </c>
@@ -8146,7 +8165,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>588</v>
       </c>
@@ -8166,7 +8185,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>591</v>
       </c>
@@ -8186,7 +8205,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -8206,7 +8225,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>597</v>
       </c>
@@ -8229,7 +8248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>600</v>
       </c>
@@ -8252,7 +8271,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>603</v>
       </c>
@@ -8268,14 +8287,15 @@
       <c r="E202">
         <v>4</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="2" t="s">
         <v>605</v>
       </c>
       <c r="H202">
-        <v>1.5870764100000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.5912685200000001</v>
+      </c>
+      <c r="I202" s="8"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>606</v>
       </c>
@@ -8295,10 +8315,10 @@
         <v>605</v>
       </c>
       <c r="H203">
-        <v>0.90773327000000004</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.91192538000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>608</v>
       </c>
@@ -8318,7 +8338,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>611</v>
       </c>
@@ -8338,7 +8358,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>614</v>
       </c>
@@ -8358,7 +8378,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>617</v>
       </c>
@@ -8378,7 +8398,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>620</v>
       </c>
@@ -9478,7 +9498,7 @@
         <v>784</v>
       </c>
       <c r="H262">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -9524,7 +9544,7 @@
         <v>790</v>
       </c>
       <c r="H264">
-        <v>57</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -9627,7 +9647,7 @@
         <v>805</v>
       </c>
       <c r="H269">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -10032,7 +10052,7 @@
         <v>849</v>
       </c>
       <c r="H287">
-        <v>54.99</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -10055,7 +10075,7 @@
         <v>849</v>
       </c>
       <c r="H288">
-        <v>27.71</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -10078,7 +10098,7 @@
         <v>849</v>
       </c>
       <c r="H289">
-        <v>57.07</v>
+        <v>54.47</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -10213,7 +10233,7 @@
         <v>870</v>
       </c>
       <c r="H295">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -10236,7 +10256,7 @@
         <v>870</v>
       </c>
       <c r="H296">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -10259,7 +10279,7 @@
         <v>875</v>
       </c>
       <c r="H297">
-        <v>11235.6</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -10710,7 +10730,7 @@
         <v>927</v>
       </c>
       <c r="H317">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -10733,7 +10753,7 @@
         <v>930</v>
       </c>
       <c r="H318">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -10976,7 +10996,7 @@
         <v>966</v>
       </c>
       <c r="H330">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -10999,7 +11019,7 @@
         <v>969</v>
       </c>
       <c r="H331">
-        <v>835</v>
+        <v>943</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -11022,7 +11042,7 @@
         <v>972</v>
       </c>
       <c r="H332">
-        <v>1364</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -11383,7 +11403,7 @@
         <v>1022</v>
       </c>
       <c r="H349">
-        <v>11490</v>
+        <v>12995</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -11429,7 +11449,7 @@
         <v>1027</v>
       </c>
       <c r="H351">
-        <v>36.859000000000002</v>
+        <v>38.045999999999999</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -11942,7 +11962,7 @@
         <v>1091</v>
       </c>
       <c r="H375">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -11965,7 +11985,7 @@
         <v>1094</v>
       </c>
       <c r="H376">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -11988,7 +12008,7 @@
         <v>1097</v>
       </c>
       <c r="H377">
-        <v>300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -12520,7 +12540,7 @@
         <v>1175</v>
       </c>
       <c r="H403">
-        <v>44.732999999999997</v>
+        <v>45.478999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -12639,8 +12659,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F202" r:id="rId1" xr:uid="{005C5ACF-038B-4E11-B9EB-587D424446D9}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</oddHeader>
     <evenHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</evenHeader>
@@ -12656,10 +12679,10 @@
   </sheetPr>
   <dimension ref="A1:F408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B260" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B260" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B230" sqref="B230"/>
-      <selection pane="topRight" activeCell="E287" sqref="E287"/>
+      <selection pane="topRight" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19633,7 +19656,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329EE7E9-3AA3-406A-ADBB-CDB56985DF24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00FAD00-7E72-4CED-843D-4D2EF7468A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
